--- a/InputData/trans/ICtPSFfL/Incremental Cost to Produce Substitute Fuel for LCFS.xlsx
+++ b/InputData/trans/ICtPSFfL/Incremental Cost to Produce Substitute Fuel for LCFS.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10411"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipL\InputData\trans\ICtPSFfL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/pa/trans/ictpsffl/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DA93901-2E88-BE41-9FB7-8A824A823D95}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13800"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="13800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="2" r:id="rId1"/>
@@ -28,10 +29,19 @@
     <definedName name="nonlignite_multiplier">#REF!</definedName>
     <definedName name="use_lifecycle_biofuel_EIs">[1]About!$A$61</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -172,7 +182,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -216,7 +226,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -225,6 +235,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -574,22 +585,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="54" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" s="6">
+        <v>44307</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>23</v>
       </c>
@@ -597,92 +611,92 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" s="5">
         <v>2018</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>947817.12</v>
       </c>
@@ -697,23 +711,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AK35"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.42578125" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.5" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B2">
         <v>2015</v>
       </c>
@@ -823,7 +837,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -936,7 +950,7 @@
         <v>38.8994534841326</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1049,7 +1063,7 @@
         <v>47.526138928681398</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1162,7 +1176,7 @@
         <v>36.031200708728697</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1275,7 +1289,7 @@
         <v>41.934834775512002</v>
       </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1388,7 +1402,7 @@
         <v>36.031508112322399</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1501,12 +1515,12 @@
         <v>39.309585492238803</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -1619,7 +1633,7 @@
         <v>38.8994534841326</v>
       </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -1732,12 +1746,12 @@
         <v>47.526138928681398</v>
       </c>
     </row>
-    <row r="13" spans="1:37" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:37" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -1886,7 +1900,7 @@
         <v>4.1041096075720387E-5</v>
       </c>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>1</v>
       </c>
@@ -2035,7 +2049,7 @@
         <v>5.0142731045712066E-5</v>
       </c>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -2184,7 +2198,7 @@
         <v>3.8014929197236589E-5</v>
       </c>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -2333,7 +2347,7 @@
         <v>4.4243592873182117E-5</v>
       </c>
     </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -2482,7 +2496,7 @@
         <v>3.8015253525197351E-5</v>
       </c>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -2631,7 +2645,7 @@
         <v>4.1473808251362669E-5</v>
       </c>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -2780,7 +2794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -2929,7 +2943,7 @@
         <v>4.1041096075720387E-5</v>
       </c>
     </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>1</v>
       </c>
@@ -3078,12 +3092,12 @@
         <v>5.0142731045712066E-5</v>
       </c>
     </row>
-    <row r="24" spans="1:37" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:37" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>11</v>
       </c>
@@ -3091,7 +3105,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>12</v>
       </c>
@@ -3099,7 +3113,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>13</v>
       </c>
@@ -3107,7 +3121,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>14</v>
       </c>
@@ -3115,12 +3129,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:37" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:37" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B31">
         <v>2015</v>
       </c>
@@ -3230,7 +3244,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>11</v>
       </c>
@@ -3343,7 +3357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>12</v>
       </c>
@@ -3456,7 +3470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>13</v>
       </c>
@@ -3605,7 +3619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>14</v>
       </c>
@@ -3760,7 +3774,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
@@ -3768,13 +3782,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" customWidth="1"/>
+    <col min="1" max="1" width="23.83203125" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>42</v>
       </c>
@@ -3887,7 +3901,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -4036,7 +4050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -4185,7 +4199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -4334,7 +4348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -4483,7 +4497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -4632,7 +4646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -4781,7 +4795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -4930,7 +4944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>39</v>
       </c>
@@ -5079,7 +5093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>40</v>
       </c>
@@ -5228,7 +5242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>41</v>
       </c>

--- a/InputData/trans/ICtPSFfL/Incremental Cost to Produce Substitute Fuel for LCFS.xlsx
+++ b/InputData/trans/ICtPSFfL/Incremental Cost to Produce Substitute Fuel for LCFS.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/pa/trans/ictpsffl/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/template_state/trans/ictpsffl/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DA93901-2E88-BE41-9FB7-8A824A823D95}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1586DB28-58E7-E742-ABD4-C697EC8EA589}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="13800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
